--- a/data/case1/9/Q1_6.xlsx
+++ b/data/case1/9/Q1_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.15758672390627737</v>
+        <v>0.19925705524686776</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999910544943</v>
+        <v>-0.005999999985213833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999925157681</v>
+        <v>-0.0039999999868047809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999862625515</v>
+        <v>-0.0079999999761035667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999929364307</v>
+        <v>-0.0029999999867262872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999933162371</v>
+        <v>-0.0019999999862729823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999817077523</v>
+        <v>-0.0099999999671074313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999815487683</v>
+        <v>-0.0099999999665776329</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999992996937</v>
+        <v>-0.0019999999851187944</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999930178092</v>
+        <v>-0.0019999999847986061</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999915890641</v>
+        <v>-0.0029999999824337209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999908911228</v>
+        <v>-0.0034999999812255211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999912113111</v>
+        <v>-0.0034999999812832527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.022029132319159039</v>
+        <v>0.013562891188107606</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999999483557644</v>
+        <v>-0.00099999998708266702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999932718282</v>
+        <v>-0.0019999999844833027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999931012979</v>
+        <v>-0.0019999999841822103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999901780825</v>
+        <v>-0.0039999999793609575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.00399999999392886</v>
+        <v>-0.0039999999898872041</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999935336206</v>
+        <v>-0.0039999999892224025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.003999999993475889</v>
+        <v>-0.0039999999891273674</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999934305919</v>
+        <v>-0.0039999999890385496</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.022801499616866394</v>
+        <v>-0.034042946223591386</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999968119297</v>
+        <v>-0.019999999946414881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999967716064</v>
+        <v>-0.019999999945747859</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999925316985</v>
+        <v>-0.0024999999847565846</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999923278615</v>
+        <v>-0.0024999999842703069</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999923729916</v>
+        <v>-0.0019999999834077187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.056719474509387524</v>
+        <v>0.036819312267335036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999907730306</v>
+        <v>-0.059999999843069141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999832468518</v>
+        <v>-0.0069999999676522151</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999978854035</v>
+        <v>-0.0099999999603728185</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999874531511</v>
+        <v>-0.003999999974524826</v>
       </c>
     </row>
   </sheetData>
